--- a/artfynd/A 30133-2021.xlsx
+++ b/artfynd/A 30133-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>67753802</v>
+        <v>80491992</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>77177</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,44 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hamrarna, Dlr</t>
+          <t>Furubäcksmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>420563.8119189619</v>
+        <v>419982.7934210463</v>
       </c>
       <c r="R2" t="n">
-        <v>6725772.004727462</v>
+        <v>6725885.92551488</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -760,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -786,48 +776,23 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>ga asp m bohål, mkt fin naturskog på denna fastighet</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Populus tremula # ga asp m bohål, mkt fin naturskog på denna fastighet</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80491995</v>
+        <v>80491993</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -867,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>420334.941858212</v>
+        <v>420104.1243034533</v>
       </c>
       <c r="R3" t="n">
-        <v>6725817.777769641</v>
+        <v>6725864.098819775</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -939,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80491997</v>
+        <v>80491995</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -979,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>420411.9141204953</v>
+        <v>420334.941858212</v>
       </c>
       <c r="R4" t="n">
-        <v>6725811.167292034</v>
+        <v>6725817.777769641</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1051,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80491992</v>
+        <v>67753802</v>
       </c>
       <c r="B5" t="n">
-        <v>77177</v>
+        <v>78569</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,34 +1032,44 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Furubäcksmyrorna, Dlr</t>
+          <t>Hamrarna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>419982.7934210463</v>
+        <v>420563.8119189619</v>
       </c>
       <c r="R5" t="n">
-        <v>6725885.92551488</v>
+        <v>6725772.004727462</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1121,7 +1096,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1131,7 +1106,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1147,26 +1122,51 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>ga asp m bohål, mkt fin naturskog på denna fastighet</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Populus tremula # ga asp m bohål, mkt fin naturskog på denna fastighet</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80492005</v>
+        <v>80491997</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,38 +1175,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hamrarna, Dlr</t>
+          <t>Furubäcksmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>420638.7854734209</v>
+        <v>420411.9141204953</v>
       </c>
       <c r="R6" t="n">
-        <v>6725786.040621105</v>
+        <v>6725811.167292034</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80491993</v>
+        <v>80492005</v>
       </c>
       <c r="B7" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,38 +1287,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Furubäcksmyrorna, Dlr</t>
+          <t>Hamrarna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>420104.1243034533</v>
+        <v>420638.7854734209</v>
       </c>
       <c r="R7" t="n">
-        <v>6725864.098819775</v>
+        <v>6725786.040621105</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>

--- a/artfynd/A 30133-2021.xlsx
+++ b/artfynd/A 30133-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80491992</v>
+        <v>67753802</v>
       </c>
       <c r="B2" t="n">
-        <v>77177</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Furubäcksmyrorna, Dlr</t>
+          <t>Hamrarna, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>419982.7934210463</v>
+        <v>420563.8119189619</v>
       </c>
       <c r="R2" t="n">
-        <v>6725885.92551488</v>
+        <v>6725772.004727462</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -750,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +770,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-09-23</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,23 +786,48 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>ga asp m bohål, mkt fin naturskog på denna fastighet</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Populus tremula # ga asp m bohål, mkt fin naturskog på denna fastighet</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80491993</v>
+        <v>80491995</v>
       </c>
       <c r="B3" t="n">
         <v>90653</v>
@@ -832,10 +867,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>420104.1243034533</v>
+        <v>420334.941858212</v>
       </c>
       <c r="R3" t="n">
-        <v>6725864.098819775</v>
+        <v>6725817.777769641</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -904,7 +939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>80491995</v>
+        <v>80491997</v>
       </c>
       <c r="B4" t="n">
         <v>90653</v>
@@ -944,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>420334.941858212</v>
+        <v>420411.9141204953</v>
       </c>
       <c r="R4" t="n">
-        <v>6725817.777769641</v>
+        <v>6725811.167292034</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1016,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>67753802</v>
+        <v>80491992</v>
       </c>
       <c r="B5" t="n">
-        <v>78569</v>
+        <v>77177</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,44 +1067,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>(Hoffm.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Hamrarna, Dlr</t>
+          <t>Furubäcksmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>420563.8119189619</v>
+        <v>419982.7934210463</v>
       </c>
       <c r="R5" t="n">
-        <v>6725772.004727462</v>
+        <v>6725885.92551488</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1096,7 +1121,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1106,7 +1131,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1122,51 +1147,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>ga asp m bohål, mkt fin naturskog på denna fastighet</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Populus tremula # ga asp m bohål, mkt fin naturskog på denna fastighet</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80491997</v>
+        <v>80492005</v>
       </c>
       <c r="B6" t="n">
-        <v>90653</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,38 +1175,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Furubäcksmyrorna, Dlr</t>
+          <t>Hamrarna, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>420411.9141204953</v>
+        <v>420638.7854734209</v>
       </c>
       <c r="R6" t="n">
-        <v>6725811.167292034</v>
+        <v>6725786.040621105</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80492005</v>
+        <v>80491993</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>90653</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,38 +1287,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hamrarna, Dlr</t>
+          <t>Furubäcksmyrorna, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>420638.7854734209</v>
+        <v>420104.1243034533</v>
       </c>
       <c r="R7" t="n">
-        <v>6725786.040621105</v>
+        <v>6725864.098819775</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
